--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/OKLAHOMA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/OKLAHOMA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1258"/>
+  <dimension ref="A1:D1252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C50">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C53">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C61">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C91">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C101">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C103">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C123">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C124">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C131">
@@ -2393,7 +2393,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C154">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C164">
@@ -2554,7 +2554,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2611,7 +2611,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C170">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C184">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C198">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C202">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C210">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C211">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C212">
@@ -3292,13 +3292,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C222">
@@ -3337,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C225">
@@ -3350,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C226">
@@ -3415,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C231">
@@ -3506,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C238">
@@ -3571,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C243">
@@ -3636,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C248">
@@ -3792,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C260">
@@ -3870,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C266">
@@ -3883,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C267">
@@ -3909,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C269">
@@ -4026,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C278">
@@ -4078,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C282">
@@ -4156,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C288">
@@ -4169,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C289">
@@ -4182,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4195,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C291">
@@ -4324,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="D300">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="301">
@@ -4343,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C302">
@@ -4356,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C303">
@@ -4369,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C304">
@@ -4473,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C312">
@@ -4525,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4629,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C324">
@@ -4681,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C328">
@@ -4707,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C330">
@@ -4733,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C332">
@@ -4746,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C333">
@@ -4759,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C334">
@@ -4824,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C339">
@@ -4907,7 +4906,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4933,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C347">
@@ -4946,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C348">
@@ -4998,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C352">
@@ -5024,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C354">
@@ -5037,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C355">
@@ -5076,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C358">
@@ -5089,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C359">
@@ -5102,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C360">
@@ -5141,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C363">
@@ -5154,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C364">
@@ -5193,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5206,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C368">
@@ -5271,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C373">
@@ -5284,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C374">
@@ -5297,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C375">
@@ -5336,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C378">
@@ -5466,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C388">
@@ -5492,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C390">
@@ -5518,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C392">
@@ -5570,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C396">
@@ -5705,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C406">
@@ -5783,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C412">
@@ -5796,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C413">
@@ -5861,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C418">
@@ -5926,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C423">
@@ -5965,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C426">
@@ -6017,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6030,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C431">
@@ -6056,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C433">
@@ -6069,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C434">
@@ -6095,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C436">
@@ -6186,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C443">
@@ -6212,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C445">
@@ -6238,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C447">
@@ -6277,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C450">
@@ -6290,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C451">
@@ -6316,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C453">
@@ -6438,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C462">
@@ -6451,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C463">
@@ -6516,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C468">
@@ -6581,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C473">
@@ -6659,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C479">
@@ -6737,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6750,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C486">
@@ -6763,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C487">
@@ -6815,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C491">
@@ -6880,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C496">
@@ -6945,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C501">
@@ -6997,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C505">
@@ -7010,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C506">
@@ -7036,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C508">
@@ -7049,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C509">
@@ -7075,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C511">
@@ -7088,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C512">
@@ -7127,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C515">
@@ -7192,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C520">
@@ -7218,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C522">
@@ -7238,7 +7237,7 @@
         <v>15</v>
       </c>
       <c r="D523">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="524">
@@ -7296,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C528">
@@ -7309,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C529">
@@ -7322,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C530">
@@ -7387,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C535">
@@ -7400,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C536">
@@ -7439,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C539">
@@ -7452,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C540">
@@ -7691,7 +7690,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C558">
@@ -7717,7 +7716,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C560">
@@ -8484,7 +8483,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C619">
@@ -8762,7 +8761,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C640">
@@ -8879,7 +8878,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C649">
@@ -8944,7 +8943,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C654">
@@ -9066,7 +9065,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C663">
@@ -9318,7 +9317,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C682">
@@ -9422,14 +9421,14 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C690">
         <v>15</v>
       </c>
       <c r="D690">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="691">
@@ -9474,7 +9473,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C694">
@@ -9557,7 +9556,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C700">
@@ -9596,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C703">
@@ -9635,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C706">
@@ -9648,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C707">
@@ -9661,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C708">
@@ -9674,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C709">
@@ -9687,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C710">
@@ -9739,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C714">
@@ -9765,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C716">
@@ -9778,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C717">
@@ -9804,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C719">
@@ -9817,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C720">
@@ -9830,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C721">
@@ -9843,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C722">
@@ -9986,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C733">
@@ -10064,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C739">
@@ -10142,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C745">
@@ -10324,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C759">
@@ -10480,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C771">
@@ -10818,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -11039,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C814">
@@ -11052,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C815">
@@ -11065,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C816">
@@ -11078,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C817">
@@ -11091,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C818">
@@ -11104,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C819">
@@ -11130,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C821">
@@ -11356,7 +11355,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C838">
@@ -11434,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C844">
@@ -11473,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C847">
@@ -11512,7 +11511,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C850">
@@ -11603,7 +11602,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C857">
@@ -11681,7 +11680,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C863">
@@ -11824,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C874">
@@ -11850,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C876">
@@ -11928,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C882">
@@ -11980,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C886">
@@ -12071,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C893">
@@ -12258,7 +12257,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C907">
@@ -12284,7 +12283,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C909">
@@ -12362,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C915">
@@ -12375,14 +12374,14 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C916">
         <v>15</v>
       </c>
       <c r="D916">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="917">
@@ -12401,7 +12400,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C918">
@@ -12440,7 +12439,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C921">
@@ -12606,7 +12605,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C933">
@@ -12619,7 +12618,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C934">
@@ -12684,7 +12683,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C939">
@@ -12710,7 +12709,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C941">
@@ -12827,7 +12826,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C950">
@@ -12892,7 +12891,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C955">
@@ -12970,7 +12969,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C961">
@@ -12996,7 +12995,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C963">
@@ -13074,7 +13073,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C969">
@@ -13126,7 +13125,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C973">
@@ -13139,7 +13138,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C974">
@@ -13152,7 +13151,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C975">
@@ -13165,7 +13164,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C976">
@@ -13178,7 +13177,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C977">
@@ -13191,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C978">
@@ -13385,7 +13384,7 @@
         <v>15</v>
       </c>
       <c r="D992">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="993">
@@ -13643,7 +13642,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1012">
@@ -13772,7 +13771,7 @@
         <v>15</v>
       </c>
       <c r="D1021">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="1022">
@@ -14238,7 +14237,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1057">
@@ -14271,7 +14270,7 @@
         <v>15</v>
       </c>
       <c r="D1059">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="1060">
@@ -14399,7 +14398,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1069">
@@ -14599,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1084">
@@ -14651,7 +14650,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1088">
@@ -14742,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1095">
@@ -14755,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1096">
@@ -14911,7 +14910,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1108">
@@ -14924,7 +14923,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1109">
@@ -15041,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1118">
@@ -15054,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1119">
@@ -15093,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1122">
@@ -15106,7 +15105,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1123">
@@ -15119,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1124">
@@ -15210,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1131">
@@ -15262,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1135">
@@ -15275,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1136">
@@ -15314,7 +15313,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1139">
@@ -15340,7 +15339,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1141">
@@ -15457,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1150">
@@ -15496,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1153">
@@ -15548,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1157">
@@ -15626,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1163">
@@ -15652,7 +15651,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1165">
@@ -15678,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1167">
@@ -15912,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1185">
@@ -15990,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16182,7 +16181,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1205">
@@ -16208,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1207">
@@ -16234,7 +16233,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1209">
@@ -16351,7 +16350,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1218">
@@ -16410,7 +16409,7 @@
         <v>15</v>
       </c>
       <c r="D1222">
-        <v>0.0009654994850669413</v>
+        <v>0.0009654994850669412</v>
       </c>
     </row>
     <row r="1223">
@@ -16429,7 +16428,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1224">
@@ -16494,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1229">
@@ -16507,7 +16506,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1230">
@@ -16520,7 +16519,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1231">
@@ -16663,7 +16662,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1242">
@@ -16702,7 +16701,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1245">
@@ -16801,41 +16800,6 @@
       </c>
       <c r="D1252">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
